--- a/data/importance_lasso.xlsx
+++ b/data/importance_lasso.xlsx
@@ -448,121 +448,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>covid_motor</t>
+          <t>ID_Zenodo</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03622565609413256</v>
+        <v>0.1578994866598187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>no2bcn_12h</t>
+          <t>covid_motor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02726837315393459</v>
+        <v>0.1535704795596403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>district_horta-guinardo</t>
+          <t>covid_work</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02260144535602904</v>
+        <v>0.1374586330929319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>covid_work</t>
+          <t>district_eixample</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01206030413121148</v>
+        <v>0.1198998603298759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>no2bcn_12h_x30</t>
+          <t>tmean_24h</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.737293792230631e-09</v>
+        <v>0.098466130747103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>otrofactor_yes</t>
+          <t>psycho_no</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.918039982587681e-17</v>
+        <v>0.0982738049589553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gender_mujer</t>
+          <t>min_gps</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.91803998258768e-17</v>
+        <v>0.08538771409703298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ordenador_yes</t>
+          <t>µgm3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.91803998258768e-17</v>
+        <v>0.06628738707165698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>district_horta-guinardo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.06605683991661392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>district_sarria sant-gervasi</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.0653406915670578</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>inhib_control</t>
+          <t>covid_electric</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.06445096220835048</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mean_congruent</t>
+          <t>incidence_cat_physical and mobility incidences</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.03456397114301783</v>
       </c>
     </row>
     <row r="14">
@@ -572,223 +572,223 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.03138979694963173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>occurrence_stroop</t>
+          <t>covid_mood</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0.02631142691383427</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>response_duration_ms</t>
+          <t>district_sant martí</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.02577469081106834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>covid_sleep</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0.02559302231790953</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mean_incongruent</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.0229735622737349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>correct</t>
+          <t>no2gps_12h</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.02257584598378388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>no2bcn_24h</t>
+          <t>sec_noise55_day</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.02203085821842481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>z_inhib_control</t>
+          <t>bebida_no</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.01936234650430869</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>day</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.01794958633722329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>occurrence_mental</t>
+          <t>Houroff_minute</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0.01523816059323644</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sueno</t>
+          <t>alcohol_no</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0</v>
+        <v>0.009954187472911562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>energia</t>
+          <t>occurrence_stroop</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0</v>
+        <v>0.00760430148231367</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ID_Zenodo</t>
+          <t>sueno</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.003606537616160199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>incidence_cat_mobility incidence</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.0004038705569231379</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>humi_12h</t>
+          <t>no2bcn_24h</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.0003016590165830414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pressure_24h</t>
+          <t>no2bcn_24h_x30</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.681356947460374e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>no2gps_24h_x30</t>
+          <t>otrofactor_yes</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3.430582896158414e-15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>min_gps</t>
+          <t>gender_mujer</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>4.871539411963164e-16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hour_gps</t>
+          <t>Totaltime_estimated_yes</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.420771618963242e-16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pm25bcn</t>
+          <t>access_greenbluespaces_300mbuff_yes</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1.980289775612725e-16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCμg</t>
+          <t>dieta_yes</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.776216105492609e-17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sec_noise55_day</t>
+          <t>smoke_yes</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.122797673233816e-18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sec_noise65_day</t>
+          <t>tmean_12h</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,17 +798,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sec_greenblue_day</t>
+          <t>humi_24h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>hours_noise_55_day</t>
+          <t>hours_greenblue_day</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,17 +818,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hours_noise_65_day</t>
+          <t>start_month</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hours_greenblue_day</t>
+          <t>precip_24h_binary</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>tmean_24h</t>
+          <t>precip_12h_binary</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>tmean_12h</t>
+          <t>sec_noise65_day</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>humi_24h</t>
+          <t>hour_gps</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>maxwindspeed_12h</t>
+          <t>end_day</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>noise_total_LDEN_55</t>
+          <t>maxwindspeed_12h</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>pressure_12h</t>
+          <t>noise_total_LDEN_55</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>precip_24h</t>
+          <t>no2bcn_12h</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,37 +908,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>precip_12h</t>
+          <t>inhib_control</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>precip_12h_binary</t>
+          <t>mean_congruent</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>precip_24h_binary</t>
+          <t>mean_incongruent</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>maxwindspeed_24h</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,17 +948,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>start_month</t>
+          <t>no2gps_24h</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>start_year</t>
+          <t>no2bcn_12h_x30</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,11 +968,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>z_performance</t>
+          <t>no2gps_24h_x30</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -988,27 +988,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>no2gps_24h</t>
+          <t>response_duration_ms</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>no2gps_12h</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>no2gps_12h_x30</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>no2bcn_24h_x30</t>
+          <t>occurrence_mental</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>dieta_yes</t>
+          <t>stroop_test_yes</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,17 +1038,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dieta_no</t>
+          <t>ordenador_yes</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>end_day</t>
+          <t>mentalhealth_survey_yes</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>start_hour</t>
+          <t>incidence_cat_no incidence</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>start_day</t>
+          <t>drogas_yes</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,37 +1078,37 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>µgm3</t>
+          <t>drogas_no</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>end_hour</t>
+          <t>district_16</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>end_month</t>
+          <t>enfermo_yes</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>enfermo_no</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,17 +1118,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>covid_mood</t>
+          <t>mentalhealth_survey_no</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>covid_espacios</t>
+          <t>actividadfisica_yes</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,37 +1138,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>covid_sleep</t>
+          <t>covid_espacios</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Totaltime</t>
+          <t>covid_aire</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>age_yrs</t>
+          <t>maxwindspeed_24h</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>yearbirth</t>
+          <t>precip_12h</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>end_year</t>
+          <t>start_year</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,37 +1188,37 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Houron_hour</t>
+          <t>no2gps_12h_x30</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Houron_minute</t>
+          <t>humi_12h</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Houroff_hour</t>
+          <t>precip_24h</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Houroff_minute</t>
+          <t>pressure_12h</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,17 +1228,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Totaltime_estimated_no</t>
+          <t>hours_noise_55_day</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Totaltime_estimated_yes</t>
+          <t>yearbirth</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff_no</t>
+          <t>Houroff_hour</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,17 +1258,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff_yes</t>
+          <t>Houron_hour</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>actividadfisica_no</t>
+          <t>bebida_yes</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,361 +1278,361 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>actividadfisica_yes</t>
+          <t>alcohol_yes</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>alcohol_no</t>
+          <t>age_yrs</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>alcohol_yes</t>
+          <t>Totaltime</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>covid_aire</t>
+          <t>end_year</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>covid_electric</t>
+          <t>psycho_yes</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>-3.041816708790827e-18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>covid_bikewalk</t>
+          <t>sec_greenblue_day</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>-0.002265444267193388</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>covid_public_trans</t>
+          <t>district_les corts</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0</v>
+        <v>-0.004504674555637647</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>smoke_yes</t>
+          <t>smoke_no</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0</v>
+        <v>-0.006191168797390655</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>enfermo_yes</t>
+          <t>BCμg</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>-0.006266586399653456</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bebida_yes</t>
+          <t>Houron_minute</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>-0.006826548055406037</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bebida_no</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0</v>
+        <v>-0.008383080629644176</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>district_gràcia</t>
+          <t>district_ciutat vella</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0</v>
+        <v>-0.01131175322863899</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>district_16</t>
+          <t>end_month</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>-0.01682480611339203</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>district_eixample</t>
+          <t>pm25bcn</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>-0.01804738938666836</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>district_ciutat vella</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>-0.02180362263906656</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>district_sant martí</t>
+          <t>dieta_no</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>-0.0274924268648717</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>district_sants-montjuïc</t>
+          <t>start_hour</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0</v>
+        <v>-0.02897650321112451</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>district_sarria sant-gervasi</t>
+          <t>covid_public_trans</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>-0.03113566678055864</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>drogas_no</t>
+          <t>pressure_24h</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>-0.03168382287191043</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>drogas_yes</t>
+          <t>start_day</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0</v>
+        <v>-0.03236429273536556</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>district_les corts</t>
+          <t>district_gràcia</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0</v>
+        <v>-0.03287053042011604</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>district_nou barris</t>
+          <t>access_greenbluespaces_300mbuff_no</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0</v>
+        <v>-0.03306291061498486</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>district_sant andreu</t>
+          <t>district_sants-montjuïc</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0</v>
+        <v>-0.03560422773375842</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>stroop_test_yes</t>
+          <t>z_performance</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>-0.03689644350476221</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mentalhealth_survey_yes</t>
+          <t>district_nou barris</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0</v>
+        <v>-0.04325023135822188</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>enfermo_no</t>
+          <t>covid_bikewalk</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0</v>
+        <v>-0.04845471104219429</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>incidence_cat_mobility incidence</t>
+          <t>month</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0</v>
+        <v>-0.05163503998523607</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>incidence_cat_physical incidence</t>
+          <t>actividadfisica_no</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0</v>
+        <v>-0.05455010381141168</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mentalhealth_survey_no</t>
+          <t>incidence_cat_physical incidence</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>-0.06150069579534738</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>incidence_cat_no incidence</t>
+          <t>Totaltime_estimated_no</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>-0.06233793935882769</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>incidence_cat_physical and mobility incidences</t>
+          <t>hours_noise_65_day</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>-0.06834728438004879</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>smoke_no</t>
+          <t>z_inhib_control</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>-0.06959142731687405</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>psycho_yes</t>
+          <t>district_sant andreu</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0</v>
+        <v>-0.07008116365218016</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>psycho_no</t>
+          <t>end_hour</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>-0.08432878089865316</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>gender_hombre</t>
+          <t>dayoftheweek</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.005918920390181943</v>
+        <v>-0.09110835192496791</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>dayoftheweek</t>
+          <t>gender_hombre</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.08502290014246905</v>
+        <v>-0.1324441293790531</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.1543085536504887</v>
+        <v>-0.2215984654015029</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.1955606991615748</v>
+        <v>-0.3095843729279159</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.2282907394030973</v>
+        <v>-0.3300432473156368</v>
       </c>
     </row>
   </sheetData>
